--- a/medicine/Psychotrope/Bière_d'abbaye/Bière_d'abbaye.xlsx
+++ b/medicine/Psychotrope/Bière_d'abbaye/Bière_d'abbaye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_d%27abbaye</t>
+          <t>Bière_d'abbaye</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bières d'abbaye sont des bières faisant référence à la vie monastique ou à une abbaye particulière, en activité ou non. 
 Parfois brassées jadis sur place par les moines, il peut s'agir aussi d'une licence délivrée à un brasseur par une communauté monastique, ou de la référence à une abbaye disparue. Toutefois, quelques bières sont aujourd'hui encore brassées au sein d'une abbaye. C'est le cas pour les bières produites par les moines trappistes.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_d%27abbaye</t>
+          <t>Bière_d'abbaye</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Autriche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Autriche compte depuis 2012 une bière trappiste (label ATP) : l'Engelszell.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_d%27abbaye</t>
+          <t>Bière_d'abbaye</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,20 +558,127 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dans le contexte brassicole belge, le terme bière d'abbaye désigne généralement un type de bière comportant plusieurs variétés. Ces bières sont souvent de fermentation haute.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le contexte brassicole belge, le terme bière d'abbaye désigne généralement un type de bière comportant plusieurs variétés. Ces bières sont souvent de fermentation haute.
 Trois catégories de bières d'abbaye belges sont répertoriées.
-Bières belges d'Abbaye reconnues
-Un peu plus de vingt marques de bières d'abbaye sont labellisés Bière belge d'Abbaye reconnue. Ce logo destiné à stopper les abus des marques commerciales sur la dénomination abbaye, certifie que la brasserie :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bière_d'abbaye</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bières belges d'Abbaye reconnues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un peu plus de vingt marques de bières d'abbaye sont labellisés Bière belge d'Abbaye reconnue. Ce logo destiné à stopper les abus des marques commerciales sur la dénomination abbaye, certifie que la brasserie :
 a un lien avec l'abbaye dont l'existence est ou a été reconnue
 reverse une partie des bénéfices à la communauté monastique
-laisse un droit de regard à la communauté monastique sur la publicité et globalement sur l'utilisation du nom de l'abbaye[1].
+laisse un droit de regard à la communauté monastique sur la publicité et globalement sur l'utilisation du nom de l'abbaye.
 Les plus connues sont la Leffe, la Grimbergen, la Maredsous, l'Abbaye d'Aulne, la Val-Dieu, l'Affligem et la Floreffe.
-Bières trappistes
-Les bières trappistes sont des bières d'abbaye brassées par ou sous contrôle des moines trappistes, dans le respect des critères définis par l'Association trappiste internationale. Il existe plusieurs marques de bières trappistes en Belgique : Chimay, Orval, Rochefort, Westmalle, Achel et Westvleteren.
-Autres bières d'abbaye
-On compte une trentaine de marques de bières belges avec la mention Bière d'Abbaye mais ne pouvant arborer le logo Bière belge d'Abbaye reconnue. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bière_d'abbaye</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bières trappistes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bières trappistes sont des bières d'abbaye brassées par ou sous contrôle des moines trappistes, dans le respect des critères définis par l'Association trappiste internationale. Il existe plusieurs marques de bières trappistes en Belgique : Chimay, Orval, Rochefort, Westmalle, Achel et Westvleteren.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bière_d'abbaye</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres bières d'abbaye</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On compte une trentaine de marques de bières belges avec la mention Bière d'Abbaye mais ne pouvant arborer le logo Bière belge d'Abbaye reconnue. 
 Parmi celles-ci, on peut citer :
 Abbaye de Boneffe (Brasserie de Tubize)
 Abbaye de Cambron (Brasserie de Cambron)
@@ -588,31 +709,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bière_d'abbaye</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La Pistoloise Double (Le Caveau des Trois-Pistoles, Trois-Pistoles, Québec)
 La Pistoloise Triple (Le Caveau des Trois-Pistoles, Trois-Pistoles, Québec)
@@ -628,62 +751,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bière_d'abbaye</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les États-Unis comptent depuis 2013 une bière trappiste (label ATP) : la Spencer.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bière_d'abbaye</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Parmi les bières d'abbaye françaises, on peut citer :
 Bière d'Abbaye Saint-Wandrille
@@ -692,76 +819,80 @@
 Abbaye de Vaucelles ;
 La Mondiale ;
 Saint-Bavon ;
-Abbaye de Clairmarais (Brasserie abbaye de Clairmarais)[2] ;
-Saint-Bertin[3] ;
+Abbaye de Clairmarais (Brasserie abbaye de Clairmarais) ;
+Saint-Bertin ;
 Alveringem ;
 Saint-Landelin ;
 Wendelinus de Meteor ;
 La Bière d'Abbaye de Champigneulles ;
 Grimbergen de Brasseries Kronenbourg ;
 Bière du Mont des Cats qui est la seule bière à être commercialisée par une abbaye trappiste française. Cependant elle ne porte pas le logo délivré par l'Association trappiste internationale puisqu'elle n’est pas brassée près de l’Abbaye du Mont des Cats mais à Chimay en Belgique.
-Abbaye de Vauclair bière d'abbaye des magasins Lidl en France[4] ;
-Abbaye bénédictine de Saint-Wandrille de Fontenelle à Saint-Wandrille-Rançon en Seine-Maritime. Elle commercialise en 2016 la seule bière d'abbaye produite et brassée en France[5],[6]. Cette bière est à mi-chemin entre la bière ambrée et la bière blonde. Elle est produite uniquement avec du houblon et des céréales cultivés en France.
+Abbaye de Vauclair bière d'abbaye des magasins Lidl en France ;
+Abbaye bénédictine de Saint-Wandrille de Fontenelle à Saint-Wandrille-Rançon en Seine-Maritime. Elle commercialise en 2016 la seule bière d'abbaye produite et brassée en France,. Cette bière est à mi-chemin entre la bière ambrée et la bière blonde. Elle est produite uniquement avec du houblon et des céréales cultivés en France.
 Bière de l'Abbaye de Montbenoît (Brasserie Sâdjē).</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bière_d'abbaye</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Italie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Italie compte depuis 2015 une bière trappiste (label ATP): la Tre Fontane.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bière_d'abbaye</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_d%27abbaye</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Pays-Bas</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Outre ses deux marques de bières trappistes avec label ATP (La Trappe et Zundert), les Pays-Bas comptent les bières d'abbaye suivantes :
 Capucijn Abdij Bier
